--- a/writeup/figures/tables.xlsx
+++ b/writeup/figures/tables.xlsx
@@ -5,15 +5,16 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsennett/Code/bike-friendly-street-classifier/writeup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsennett/Code/bike-friendly-street-classifier/writeup/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,36 +26,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>Overall</t>
-  </si>
-  <si>
-    <t>Boulder</t>
   </si>
   <si>
     <t>Seattle</t>
   </si>
   <si>
-    <t>Pittsburgh</t>
-  </si>
-  <si>
-    <t>Portland</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>bike-friendly</t>
-  </si>
-  <si>
     <t>not</t>
-  </si>
-  <si>
-    <t>overall</t>
-  </si>
-  <si>
-    <t>accuracy</t>
   </si>
   <si>
     <t>City</t>
@@ -74,12 +57,49 @@
   <si>
     <t>epoch</t>
   </si>
+  <si>
+    <t>acc</t>
+  </si>
+  <si>
+    <t>Bould.</t>
+  </si>
+  <si>
+    <t>Portl.</t>
+  </si>
+  <si>
+    <t>Pittsb.</t>
+  </si>
+  <si>
+    <t>bike</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>boulder</t>
+  </si>
+  <si>
+    <t>pittsburgh</t>
+  </si>
+  <si>
+    <t>portland</t>
+  </si>
+  <si>
+    <t>seattle</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -91,6 +111,44 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Georgia"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="30"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,42 +186,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -440,130 +512,539 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="5"/>
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:5" ht="38" x14ac:dyDescent="0.4">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="38" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="38" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5">
+        <v>313</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.71889401000000008</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.5625</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="38" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7">
+        <v>500</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.63333333000000003</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.64687499999999998</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="38" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1551</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.89966272999999997</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.32876711999999997</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1090</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.42925659000000005</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.66567608000000011</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="39" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3454</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="15">
+        <v>56.25</v>
+      </c>
+      <c r="E2" s="15">
+        <v>96</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0.69142400000000004</v>
+      </c>
+      <c r="G2" s="15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="15">
+        <v>64.6875</v>
+      </c>
+      <c r="E3" s="15">
+        <v>320</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0.60434200000000005</v>
+      </c>
+      <c r="G3" s="15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="15">
+        <v>32.876711999999998</v>
+      </c>
+      <c r="E4" s="15">
+        <v>365</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0.95471399999999995</v>
+      </c>
+      <c r="G4" s="15">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="15">
+        <v>66.567608000000007</v>
+      </c>
+      <c r="E5" s="15">
+        <v>673</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0.62067799999999995</v>
+      </c>
+      <c r="G5" s="15">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15">
+        <v>71.889401000000007</v>
+      </c>
+      <c r="E6" s="15">
+        <v>217</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0.51953099999999997</v>
+      </c>
+      <c r="G6" s="15">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="15">
+        <v>63.333333000000003</v>
+      </c>
+      <c r="E7" s="15">
+        <v>180</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.67857599999999996</v>
+      </c>
+      <c r="G7" s="15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="B8" s="15">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="15">
+        <v>89.966273000000001</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1186</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0.37685000000000002</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="B9" s="15">
+        <v>1</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="15">
+        <v>42.925659000000003</v>
+      </c>
+      <c r="E9" s="15">
+        <v>417</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0.74130300000000005</v>
+      </c>
+      <c r="G9" s="15">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>0</v>
+      </c>
+      <c r="B13" s="15">
+        <v>0</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="16">
+        <f>D2/100</f>
+        <v>0.5625</v>
+      </c>
+      <c r="E13" s="15">
+        <v>96</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0.69142400000000004</v>
+      </c>
+      <c r="G13" s="15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="15">
+        <v>0</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="16">
+        <f t="shared" ref="D14:D20" si="0">D3/100</f>
+        <v>0.64687499999999998</v>
+      </c>
+      <c r="E14" s="15">
+        <v>320</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0.60434200000000005</v>
+      </c>
+      <c r="G14" s="15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>2</v>
+      </c>
+      <c r="B15" s="15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" si="0"/>
+        <v>0.32876711999999997</v>
+      </c>
+      <c r="E15" s="15">
+        <v>365</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0.95471399999999995</v>
+      </c>
+      <c r="G15" s="15">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>3</v>
+      </c>
+      <c r="B16" s="15">
+        <v>0</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="16">
+        <f t="shared" si="0"/>
+        <v>0.66567608000000011</v>
+      </c>
+      <c r="E16" s="15">
+        <v>673</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0.62067799999999995</v>
+      </c>
+      <c r="G16" s="15">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>4</v>
+      </c>
+      <c r="B17" s="15">
+        <v>1</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="16">
+        <f t="shared" si="0"/>
+        <v>0.71889401000000008</v>
+      </c>
+      <c r="E17" s="15">
+        <v>217</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0.51953099999999997</v>
+      </c>
+      <c r="G17" s="15">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="B18" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
-        <v>1234</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1234</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1234</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="10">
-        <v>1234</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5">
-        <v>17270</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0.6</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0.6</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0.6</v>
+      <c r="C18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="16">
+        <f t="shared" si="0"/>
+        <v>0.63333333000000003</v>
+      </c>
+      <c r="E18" s="15">
+        <v>180</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0.67857599999999996</v>
+      </c>
+      <c r="G18" s="15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>6</v>
+      </c>
+      <c r="B19" s="15">
+        <v>1</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="16">
+        <f t="shared" si="0"/>
+        <v>0.89966272999999997</v>
+      </c>
+      <c r="E19" s="15">
+        <v>1186</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0.37685000000000002</v>
+      </c>
+      <c r="G19" s="15">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
+        <v>7</v>
+      </c>
+      <c r="B20" s="15">
+        <v>1</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="16">
+        <f t="shared" si="0"/>
+        <v>0.42925659000000005</v>
+      </c>
+      <c r="E20" s="15">
+        <v>417</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0.74130300000000005</v>
+      </c>
+      <c r="G20" s="15">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -571,11 +1052,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -583,19 +1064,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
